--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ451.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ451.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1324A3-C95E-49DC-A4C9-9DAD07634927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -237,22 +238,13 @@
     <t>延期繳款年月</t>
   </si>
   <si>
-    <t>CustIdEq</t>
-  </si>
-  <si>
     <t>CustId=</t>
   </si>
   <si>
     <t>CustId ASC , ApplyDate DESC</t>
   </si>
   <si>
-    <t>RcDateEq</t>
-  </si>
-  <si>
     <t>ApplyDate=</t>
-  </si>
-  <si>
-    <t>CustRcEq</t>
   </si>
   <si>
     <t>CustId= , AND ApplyDate=</t>
@@ -382,11 +374,35 @@
     <t>SubmitKey= , AND CustId= , AND ApplyDate= , AND CourtCode= , AND DelayYM=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelayYM DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SubmitKey= , AND CustId= , AND ApplyDate= , AND CourtCode= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcSubCourtFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -636,9 +652,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般 2 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,6 +745,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -764,6 +797,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -939,11 +989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -965,7 +1015,7 @@
         <v>36</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -990,10 +1040,10 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1017,7 +1067,7 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="11"/>
@@ -1030,7 +1080,7 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
@@ -1043,7 +1093,7 @@
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11"/>
@@ -1056,7 +1106,7 @@
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -1104,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -1117,7 +1167,7 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1125,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>17</v>
@@ -1144,20 +1194,20 @@
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E13" s="15">
         <v>3</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1165,13 +1215,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="E14" s="15">
         <v>8</v>
@@ -1184,20 +1234,20 @@
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15" s="20">
         <v>3</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1211,14 +1261,14 @@
         <v>40</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="15">
         <v>6</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
@@ -1239,7 +1289,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1247,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>32</v>
@@ -1266,10 +1316,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>19</v>
@@ -1869,18 +1919,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1898,65 +1948,76 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
